--- a/dbs/基础数据导入模板20180826.xlsx
+++ b/dbs/基础数据导入模板20180826.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="25460" windowHeight="9960" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="科室基本情况和直接成本" sheetId="1" r:id="rId4"/>
-    <sheet name="医技科室工作量" sheetId="2" r:id="rId5"/>
-    <sheet name="科室开展项目年例数" sheetId="3" r:id="rId6"/>
-    <sheet name="科室对照" sheetId="4" r:id="rId7"/>
+    <sheet name="科室基本情况和直接成本" sheetId="1" r:id="rId1"/>
+    <sheet name="医技科室工作量" sheetId="2" r:id="rId2"/>
+    <sheet name="科室开展项目年例数" sheetId="3" r:id="rId3"/>
+    <sheet name="科室对照" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101">
   <si>
     <t>科室编码</t>
   </si>
@@ -269,38 +272,232 @@
   </si>
   <si>
     <t>标准医技-放射科</t>
+  </si>
+  <si>
+    <t>BZ302</t>
+  </si>
+  <si>
+    <t>标准医技-超声科</t>
+  </si>
+  <si>
+    <t>BZ303</t>
+  </si>
+  <si>
+    <t>标准医技-病理科</t>
+  </si>
+  <si>
+    <t>BZ401</t>
+  </si>
+  <si>
+    <t>标准医辅-挂号收费处</t>
+  </si>
+  <si>
+    <t>BZ402</t>
+  </si>
+  <si>
+    <t>标准医辅-供应室</t>
+  </si>
+  <si>
+    <t>BZ403</t>
+  </si>
+  <si>
+    <t>标准医辅-住院收费处</t>
+  </si>
+  <si>
+    <t>BZ404</t>
+  </si>
+  <si>
+    <t>标准医辅-病案室</t>
+  </si>
+  <si>
+    <t>BZ501</t>
+  </si>
+  <si>
+    <t>标准行政后勤-行政</t>
+  </si>
+  <si>
+    <t>BZ502</t>
+  </si>
+  <si>
+    <t>标准行政后勤-后勤</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,11 +507,197 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -352,84 +735,414 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00AAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office 主题​​">
       <a:dk1>
@@ -555,7 +1268,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -564,7 +1277,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -573,7 +1286,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -647,13 +1360,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -673,8 +1385,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -703,8 +1414,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,8 +1439,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -755,8 +1464,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -781,8 +1489,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -807,8 +1514,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -833,8 +1539,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -859,8 +1564,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -885,8 +1589,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -911,8 +1614,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -925,9 +1627,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -942,13 +1650,12 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -968,8 +1675,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,8 +1700,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,8 +1725,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,8 +1750,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,8 +1775,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,8 +1800,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,8 +1825,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1150,8 +1850,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,8 +1875,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,8 +1900,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,9 +1913,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1229,8 +1932,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1250,8 +1951,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,8 +1980,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,8 +2005,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,8 +2030,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,8 +2055,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1384,8 +2080,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1410,8 +2105,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1436,8 +2130,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1462,8 +2155,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1488,8 +2180,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1502,9 +2193,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1513,991 +2210,974 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.67188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.67188" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.67188" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.67188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.67188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.67188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.67188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.67188" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.67188" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.67188" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.67188" style="1" customWidth="1"/>
-    <col min="15" max="15" width="3.67188" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.67188" style="1" customWidth="1"/>
-    <col min="17" max="17" width="3.67188" style="1" customWidth="1"/>
-    <col min="18" max="18" width="3.67188" style="1" customWidth="1"/>
-    <col min="19" max="19" width="3.67188" style="1" customWidth="1"/>
-    <col min="20" max="20" width="3.67188" style="1" customWidth="1"/>
-    <col min="21" max="21" width="4.67188" style="1" customWidth="1"/>
-    <col min="22" max="22" width="4.67188" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.67188" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4.67188" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.67188" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.67188" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.67" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.67" style="1" customWidth="1"/>
+    <col min="3" max="7" width="8.67" style="1" customWidth="1"/>
+    <col min="8" max="14" width="7.67" style="1" customWidth="1"/>
+    <col min="15" max="20" width="3.67" style="1" customWidth="1"/>
+    <col min="21" max="26" width="4.67" style="1" customWidth="1"/>
     <col min="27" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="36" customHeight="1" spans="1:26">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" t="s" s="2">
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" t="s" s="2">
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" ht="60" customHeight="1">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" t="s" s="2">
+    <row r="2" ht="60" customHeight="1" spans="1:26">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s" s="2">
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s" s="2">
+      <c r="E2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s" s="2">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" t="s" s="2">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P2" t="s" s="2">
+      <c r="P2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s" s="2">
+      <c r="Q2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R2" t="s" s="2">
+      <c r="R2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S2" t="s" s="2">
+      <c r="S2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="T2" t="s" s="2">
+      <c r="T2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+    </row>
+    <row r="3" ht="16" customHeight="1" spans="1:26">
+      <c r="A3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>191101.12</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>192101.23</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>193101.34</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>194101.45</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>19982.33</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="7">
+      <c r="H3" s="8"/>
+      <c r="I3" s="5">
         <v>88934.56</v>
       </c>
-      <c r="J3" s="7">
-        <v>89968.320000000007</v>
-      </c>
-      <c r="K3" s="7">
+      <c r="J3" s="5">
+        <v>89968.32</v>
+      </c>
+      <c r="K3" s="5">
         <v>89936.75</v>
       </c>
-      <c r="L3" s="7">
-        <v>89968.320000000007</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="L3" s="5">
+        <v>89968.32</v>
+      </c>
+      <c r="M3" s="5">
         <v>89950.11</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="5">
         <v>89961.89</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="5">
         <v>8</v>
       </c>
-      <c r="P3" s="7">
+      <c r="P3" s="5">
         <v>6</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="5">
         <v>1</v>
       </c>
-      <c r="R3" s="7">
+      <c r="R3" s="5">
         <v>6</v>
       </c>
-      <c r="S3" s="7">
+      <c r="S3" s="5">
         <v>2</v>
       </c>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="7">
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="5">
         <v>1834</v>
       </c>
-      <c r="W3" s="5"/>
-      <c r="X3" s="7">
+      <c r="W3" s="8"/>
+      <c r="X3" s="5">
         <v>158</v>
       </c>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="8"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="10"/>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:26">
+      <c r="A4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>192601.56</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>193643.67</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>193987.78</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>194523.89</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>19659.58</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="7">
+      <c r="H4" s="8"/>
+      <c r="I4" s="5">
         <v>88827.31</v>
       </c>
-      <c r="J4" s="7">
-        <v>89925.649999999994</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="J4" s="5">
+        <v>89925.65</v>
+      </c>
+      <c r="K4" s="5">
         <v>89945.11</v>
       </c>
-      <c r="L4" s="7">
-        <v>89925.649999999994</v>
-      </c>
-      <c r="M4" s="7">
-        <v>89944.289999999994</v>
-      </c>
-      <c r="N4" s="7">
+      <c r="L4" s="5">
+        <v>89925.65</v>
+      </c>
+      <c r="M4" s="5">
+        <v>89944.29</v>
+      </c>
+      <c r="N4" s="5">
         <v>89926.16</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="5">
         <v>7</v>
       </c>
-      <c r="P4" s="7">
+      <c r="P4" s="5">
         <v>5</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="5">
         <v>2</v>
       </c>
-      <c r="R4" s="7">
+      <c r="R4" s="5">
         <v>5</v>
       </c>
-      <c r="S4" s="7">
+      <c r="S4" s="5">
         <v>3</v>
       </c>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="7">
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="5">
         <v>2186</v>
       </c>
-      <c r="W4" s="5"/>
-      <c r="X4" s="7">
+      <c r="W4" s="8"/>
+      <c r="X4" s="5">
         <v>214</v>
       </c>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="8"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="10"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:26">
+      <c r="A5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>191984.29</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>192267.36</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>193359.15</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>194961.35</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>19486.23</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="7">
+      <c r="H5" s="8"/>
+      <c r="I5" s="5">
         <v>88729.61</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>89936.75</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="5">
         <v>89967.34</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="5">
         <v>89963.84</v>
       </c>
-      <c r="M5" s="7">
-        <v>89973.570000000007</v>
-      </c>
-      <c r="N5" s="7">
+      <c r="M5" s="5">
+        <v>89973.57</v>
+      </c>
+      <c r="N5" s="5">
         <v>89950.11</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="5">
         <v>6</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="5">
         <v>4</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="5">
         <v>3</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="5">
         <v>7</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="5">
         <v>2</v>
       </c>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="7">
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="5">
         <v>3283</v>
       </c>
-      <c r="W5" s="5"/>
-      <c r="X5" s="7">
+      <c r="W5" s="8"/>
+      <c r="X5" s="5">
         <v>194</v>
       </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="8"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:26">
+      <c r="A6" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>194561.65</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>191379.11</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>193489.28</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>192469.26</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="5">
         <v>19853.69</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7">
+      <c r="H6" s="8"/>
+      <c r="I6" s="5">
         <v>88610.62</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="5">
         <v>89945.11</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="5">
         <v>89936.11</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="5">
         <v>89961.89</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="5">
         <v>89998.83</v>
       </c>
-      <c r="N6" s="7">
-        <v>89944.289999999994</v>
-      </c>
-      <c r="O6" s="7">
+      <c r="N6" s="5">
+        <v>89944.29</v>
+      </c>
+      <c r="O6" s="5">
         <v>7</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="5">
         <v>6</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="5">
         <v>5</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="5">
         <v>11</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="5">
         <v>2</v>
       </c>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="7">
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="5">
         <v>356</v>
       </c>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="9">
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="11">
         <v>2836</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="6">
+    <row r="7" ht="16" customHeight="1" spans="1:26">
+      <c r="A7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>191874.38</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>195782.98</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>192846.91</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>193782.94</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="5">
         <v>19524.78</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7">
+      <c r="H7" s="8"/>
+      <c r="I7" s="5">
         <v>88572.14</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="5">
         <v>89967.34</v>
       </c>
-      <c r="K7" s="7">
-        <v>89957.539999999994</v>
-      </c>
-      <c r="L7" s="7">
+      <c r="K7" s="5">
+        <v>89957.54</v>
+      </c>
+      <c r="L7" s="5">
         <v>89926.16</v>
       </c>
-      <c r="M7" s="7">
-        <v>89984.259999999995</v>
-      </c>
-      <c r="N7" s="7">
-        <v>89973.570000000007</v>
-      </c>
-      <c r="O7" s="7">
+      <c r="M7" s="5">
+        <v>89984.26</v>
+      </c>
+      <c r="N7" s="5">
+        <v>89973.57</v>
+      </c>
+      <c r="O7" s="5">
         <v>8</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="5">
         <v>5</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="5">
         <v>3</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="5">
         <v>12</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="5">
         <v>2</v>
       </c>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="7">
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="5">
         <v>398</v>
       </c>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="9">
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="11">
         <v>3129</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="6">
+    <row r="8" ht="16" customHeight="1" spans="1:26">
+      <c r="A8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>191638.76</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>193375.62</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>192845.73</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>193812.44</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <v>19673.98</v>
       </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7">
+      <c r="H8" s="8"/>
+      <c r="I8" s="5">
         <v>88491.25</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>89936.11</v>
       </c>
-      <c r="K8" s="7">
-        <v>89968.320000000007</v>
-      </c>
-      <c r="L8" s="7">
+      <c r="K8" s="5">
+        <v>89968.32</v>
+      </c>
+      <c r="L8" s="5">
         <v>89950.11</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>89936.75</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="5">
         <v>89998.83</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="5">
         <v>9</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <v>7</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="5">
         <v>4</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="5">
         <v>13</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="5">
         <v>3</v>
       </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="7">
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="5">
         <v>416</v>
       </c>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="9">
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="11">
         <v>3695</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="6">
+    <row r="9" ht="16" customHeight="1" spans="1:26">
+      <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7">
+      <c r="C9" s="8"/>
+      <c r="D9" s="5">
         <v>35652.33</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>63268.52</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>56137.15</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>193521.65</v>
       </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="7">
+      <c r="H9" s="8"/>
+      <c r="I9" s="5">
         <v>88371.81</v>
       </c>
-      <c r="J9" s="7">
-        <v>89957.539999999994</v>
-      </c>
-      <c r="K9" s="7">
-        <v>89925.649999999994</v>
-      </c>
-      <c r="L9" s="7">
-        <v>89944.289999999994</v>
-      </c>
-      <c r="M9" s="7">
+      <c r="J9" s="5">
+        <v>89957.54</v>
+      </c>
+      <c r="K9" s="5">
+        <v>89925.65</v>
+      </c>
+      <c r="L9" s="5">
+        <v>89944.29</v>
+      </c>
+      <c r="M9" s="5">
         <v>89945.11</v>
       </c>
-      <c r="N9" s="7">
-        <v>89984.259999999995</v>
-      </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="7">
+      <c r="N9" s="5">
+        <v>89984.26</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c r="P9" s="5">
         <v>1</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="5">
         <v>1</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="5">
         <v>2</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="5">
         <v>5</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="7">
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="5">
         <v>3328</v>
       </c>
-      <c r="W9" s="5"/>
-      <c r="X9" s="7">
+      <c r="W9" s="8"/>
+      <c r="X9" s="5">
         <v>217</v>
       </c>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="8"/>
-    </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="6">
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="10"/>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:26">
+      <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="7">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5">
         <v>191936.84</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7">
+      <c r="H10" s="8"/>
+      <c r="I10" s="5">
         <v>88217.52</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>89961.31</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>89963.84</v>
       </c>
-      <c r="L10" s="7">
-        <v>89973.570000000007</v>
-      </c>
-      <c r="M10" s="7">
+      <c r="L10" s="5">
+        <v>89973.57</v>
+      </c>
+      <c r="M10" s="5">
         <v>89967.34</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <v>89936.75</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="7">
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="5">
         <v>7</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="7">
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="5">
         <v>2671</v>
       </c>
-      <c r="W10" s="5"/>
-      <c r="X10" s="7">
+      <c r="W10" s="8"/>
+      <c r="X10" s="5">
         <v>261</v>
       </c>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="8"/>
-    </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="6">
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" ht="16" customHeight="1" spans="1:26">
+      <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="7">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="5">
         <v>192638.29</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="I11" s="7">
+      <c r="H11" s="8"/>
+      <c r="I11" s="5">
         <v>88116.25</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>89926.16</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>89950.11</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>89998.83</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <v>89936.11</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="5">
         <v>89945.11</v>
       </c>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="7">
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="5">
         <v>6</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="7">
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="5">
         <v>2956</v>
       </c>
-      <c r="W11" s="5"/>
-      <c r="X11" s="7">
+      <c r="W11" s="8"/>
+      <c r="X11" s="5">
         <v>243</v>
       </c>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="8"/>
-    </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="6">
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="10"/>
+    </row>
+    <row r="12" ht="16" customHeight="1" spans="1:26">
+      <c r="A12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="7">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5">
         <v>19164.35</v>
       </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7">
+      <c r="I12" s="8"/>
+      <c r="J12" s="5">
         <v>89950.11</v>
       </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="7">
-        <v>89984.210000000006</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="7">
+      <c r="K12" s="8"/>
+      <c r="L12" s="5">
+        <v>89984.21</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="5">
         <v>89967.34</v>
       </c>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="7">
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="5">
         <v>8</v>
       </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="8"/>
-    </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="6">
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="10"/>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="1:26">
+      <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="7">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5">
         <v>19283.46</v>
       </c>
-      <c r="I13" s="7">
-        <v>88092.929999999993</v>
-      </c>
-      <c r="J13" s="7">
-        <v>89944.289999999994</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7">
+      <c r="I13" s="5">
+        <v>88092.93</v>
+      </c>
+      <c r="J13" s="5">
+        <v>89944.29</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="5">
         <v>89936.75</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="7">
+      <c r="M13" s="8"/>
+      <c r="N13" s="5">
         <v>89936.11</v>
       </c>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="7">
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="5">
         <v>7</v>
       </c>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="8"/>
-    </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="6">
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="10"/>
+    </row>
+    <row r="14" ht="16" customHeight="1" spans="1:26">
+      <c r="A14" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s" s="6">
+      <c r="B14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="7">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="5">
         <v>19372.12</v>
       </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="7">
-        <v>89973.570000000007</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="7">
+      <c r="I14" s="8"/>
+      <c r="J14" s="5">
+        <v>89973.57</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="5">
         <v>89945.11</v>
       </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="7">
-        <v>89957.539999999994</v>
-      </c>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="7">
+      <c r="M14" s="8"/>
+      <c r="N14" s="5">
+        <v>89957.54</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="5">
         <v>6</v>
       </c>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="8"/>
-    </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="6">
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="10"/>
+    </row>
+    <row r="15" ht="16" customHeight="1" spans="1:26">
+      <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s" s="6">
+      <c r="B15" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="7">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="5">
         <v>19185.98</v>
       </c>
-      <c r="I15" s="5"/>
-      <c r="J15" s="7">
+      <c r="I15" s="8"/>
+      <c r="J15" s="5">
         <v>89998.83</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="7">
+      <c r="K15" s="8"/>
+      <c r="L15" s="5">
         <v>89967.34</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="7">
-        <v>89968.320000000007</v>
-      </c>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="7">
+      <c r="M15" s="8"/>
+      <c r="N15" s="5">
+        <v>89968.32</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="5">
         <v>5</v>
       </c>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="6">
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="10"/>
+    </row>
+    <row r="16" ht="16" customHeight="1" spans="1:26">
+      <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="B16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="7">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="5">
         <v>19451.86</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="7">
-        <v>89984.259999999995</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="7">
+      <c r="I16" s="8"/>
+      <c r="J16" s="5">
+        <v>89984.26</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="5">
         <v>89936.11</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="7">
-        <v>89925.649999999994</v>
-      </c>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="7">
+      <c r="M16" s="8"/>
+      <c r="N16" s="5">
+        <v>89925.65</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="5">
         <v>8</v>
       </c>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-    </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="6">
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+    </row>
+    <row r="17" ht="16" customHeight="1" spans="1:26">
+      <c r="A17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="B17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="7">
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5">
         <v>19512.79</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="7">
+      <c r="I17" s="8"/>
+      <c r="J17" s="5">
         <v>89963.84</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7">
-        <v>89957.539999999994</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="7">
+      <c r="K17" s="8"/>
+      <c r="L17" s="5">
+        <v>89957.54</v>
+      </c>
+      <c r="M17" s="8"/>
+      <c r="N17" s="5">
         <v>89963.84</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="7">
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="5">
         <v>9</v>
       </c>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="C1:H1"/>
     <mergeCell ref="O1:T1"/>
-    <mergeCell ref="C1:H1"/>
   </mergeCells>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2505,347 +3185,347 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.1667" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.17" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.3516" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.3516" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="10" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="10" customWidth="1"/>
-    <col min="6" max="256" width="14.1719" style="10" customWidth="1"/>
+    <col min="1" max="4" width="12.35" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85" style="1" customWidth="1"/>
+    <col min="6" max="256" width="14.17" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="17" customHeight="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="11">
+    <row r="2" ht="16" customHeight="1" spans="1:5">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="11">
+      <c r="B2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>301</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>223</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="11">
+    <row r="3" ht="16" customHeight="1" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s" s="11">
+      <c r="B3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>301</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>286</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="11">
+    <row r="4" ht="16" customHeight="1" spans="1:5">
+      <c r="A4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>301</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>247</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="11">
+    <row r="5" ht="16" customHeight="1" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="11">
+      <c r="B5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>301</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>192</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="11">
+    <row r="6" ht="16" customHeight="1" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s" s="11">
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>301</v>
       </c>
-      <c r="D6" t="s" s="3">
+      <c r="D6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>148</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="11">
+    <row r="7" ht="16" customHeight="1" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s" s="11">
+      <c r="B7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>301</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>169</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="11">
+    <row r="8" ht="16" customHeight="1" spans="1:5">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="11">
+      <c r="B8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>302</v>
       </c>
-      <c r="D8" t="s" s="3">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>296</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="11">
+    <row r="9" ht="16" customHeight="1" spans="1:5">
+      <c r="A9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s" s="11">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>302</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>213</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="11">
+    <row r="10" ht="16" customHeight="1" spans="1:5">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s" s="11">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>302</v>
       </c>
-      <c r="D10" t="s" s="3">
+      <c r="D10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>258</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="11">
+    <row r="11" ht="16" customHeight="1" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s" s="11">
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>302</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>137</v>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="11">
+    <row r="12" ht="16" customHeight="1" spans="1:5">
+      <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s" s="11">
+      <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>302</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>162</v>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="11">
+    <row r="13" ht="16" customHeight="1" spans="1:5">
+      <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="11">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>302</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>185</v>
       </c>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="11">
+    <row r="14" ht="16" customHeight="1" spans="1:5">
+      <c r="A14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s" s="11">
+      <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>303</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>86</v>
       </c>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="11">
+    <row r="15" ht="16" customHeight="1" spans="1:5">
+      <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s" s="11">
+      <c r="B15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>303</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>99</v>
       </c>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="11">
+    <row r="16" ht="16" customHeight="1" spans="1:5">
+      <c r="A16" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s" s="11">
+      <c r="B16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>303</v>
       </c>
-      <c r="D16" t="s" s="3">
+      <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="11">
+    <row r="17" ht="16" customHeight="1" spans="1:5">
+      <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s" s="11">
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>303</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>63</v>
       </c>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="11">
+    <row r="18" ht="16" customHeight="1" spans="1:5">
+      <c r="A18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s" s="11">
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>303</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="D18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>56</v>
       </c>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="11">
+    <row r="19" ht="16" customHeight="1" spans="1:5">
+      <c r="A19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B19" t="s" s="11">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>303</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -2853,279 +3533,282 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.3516" style="12" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="27" style="12" customWidth="1"/>
-    <col min="5" max="5" width="6.85156" style="12" customWidth="1"/>
-    <col min="6" max="256" width="9" style="12" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85" style="1" customWidth="1"/>
+    <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="17" customHeight="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="16" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>2700</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="3">
+    <row r="3" ht="16" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>500</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="3">
+    <row r="4" ht="16" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>1800</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="3">
+    <row r="5" ht="16" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="3">
+    <row r="6" ht="16" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s" s="3">
+      <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D6" t="s" s="3">
+      <c r="D6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>900</v>
       </c>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="3">
+    <row r="7" ht="16" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>1500</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="3">
+    <row r="8" ht="16" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s" s="3">
+      <c r="C8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D8" t="s" s="3">
+      <c r="D8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="3">
+    <row r="9" ht="16" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="3">
+      <c r="C9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" t="s" s="3">
+      <c r="D9" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="3">
+    <row r="10" ht="16" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s" s="3">
+      <c r="C10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D10" t="s" s="3">
+      <c r="D10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>2500</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="3">
+    <row r="11" ht="16" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s" s="3">
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>2000</v>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="3">
+    <row r="12" ht="16" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B12" t="s" s="3">
+      <c r="B12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="3">
+    <row r="13" ht="16" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s" s="3">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" t="s" s="3">
+      <c r="C13" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D13" t="s" s="3">
+      <c r="D13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="3">
+    <row r="14" ht="16" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s" s="3">
+      <c r="B14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" t="s" s="3">
+      <c r="C14" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D14" t="s" s="3">
+      <c r="D14" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="3">
+    <row r="15" ht="16" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s" s="3">
+      <c r="B15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s" s="3">
+      <c r="C15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D15" t="s" s="3">
+      <c r="D15" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>1000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699306" right="0.699306" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3133,144 +3816,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83" defaultRowHeight="13.5" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.3516" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.3516" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.3516" style="13" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="13" customWidth="1"/>
-    <col min="6" max="256" width="8.85156" style="13" customWidth="1"/>
+    <col min="1" max="1" width="11.35" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.35" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.85" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="14"/>
-    </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="14"/>
-    </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="3">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="16" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="3">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="16" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" t="s" s="3">
+      <c r="B4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s" s="3">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s" s="3">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="3">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" t="s" s="3">
+      <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="3">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="16" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B6" t="s" s="3">
+      <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C6" t="s" s="3">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s" s="3">
+      <c r="D6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="3">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="16" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="3">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B8" t="s" s="3">
+      <c r="B8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C8" t="s" s="3">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s" s="3">
+      <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="16" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="16" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" ht="16" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" ht="16" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" ht="16" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" ht="16" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" ht="16" customHeight="1" spans="1:5">
+      <c r="A15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" ht="16" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
